--- a/RealData/Transaction.xlsx
+++ b/RealData/Transaction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/268e0d3d81d3e1e2/ERP/RealData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{EF0CB340-B135-4543-8F0A-F71D4E444198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A243C308-C665-4207-8C02-02529B672A38}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{EF0CB340-B135-4543-8F0A-F71D4E444198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5F96CEB-D64E-4797-A8CE-11AE970D6CB4}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="9810" windowHeight="15585" xr2:uid="{A85431BD-E8F9-4F79-97E4-BDF7531380AA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>Kuruvi</t>
+  </si>
+  <si>
+    <t>Janu</t>
+  </si>
+  <si>
+    <t>Loan INR 2,800</t>
   </si>
 </sst>
 </file>
@@ -460,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A071E94A-6A2E-4BE7-83EF-DC3EE1978A30}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +477,7 @@
     <col min="1" max="1" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -479,13 +485,13 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F1" s="1">
         <f>F2-E2</f>
-        <v>-30663.240000000005</v>
+        <v>-40743.240000000005</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E2" s="1">
         <f>SUM(E4:E36)</f>
-        <v>43363.240000000005</v>
+        <v>53443.240000000005</v>
       </c>
       <c r="F2" s="1">
         <f>SUM(F4:F36)</f>
@@ -724,6 +730,24 @@
       </c>
       <c r="E16" s="1">
         <v>9600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45818</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1">
+        <f>2800*3.6</f>
+        <v>10080</v>
       </c>
     </row>
   </sheetData>

--- a/RealData/Transaction.xlsx
+++ b/RealData/Transaction.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/268e0d3d81d3e1e2/ERP/RealData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{EF0CB340-B135-4543-8F0A-F71D4E444198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5F96CEB-D64E-4797-A8CE-11AE970D6CB4}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{EF0CB340-B135-4543-8F0A-F71D4E444198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB0B7E0F-0113-4BB9-8D49-5F975CC4C283}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="9810" windowHeight="15585" xr2:uid="{A85431BD-E8F9-4F79-97E4-BDF7531380AA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A85431BD-E8F9-4F79-97E4-BDF7531380AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$F$17</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -108,7 +111,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -126,12 +129,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -147,10 +156,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -466,39 +476,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A071E94A-6A2E-4BE7-83EF-DC3EE1978A30}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F1" s="1">
         <f>F2-E2</f>
-        <v>-40743.240000000005</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-42943.240000000005</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E2" s="1">
         <f>SUM(E4:E36)</f>
-        <v>53443.240000000005</v>
+        <v>55643.240000000005</v>
       </c>
       <c r="F2" s="1">
         <f>SUM(F4:F36)</f>
         <v>12700</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -518,75 +528,73 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>45838</v>
+        <v>45818</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1">
-        <v>17191.240000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3">
+        <f>2800*3.6</f>
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>45881</v>
+        <v>45833</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3026</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>45895</v>
+        <v>45838</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>17191.240000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>45844</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1">
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>45895</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1">
-        <v>7236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="3">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>45845</v>
       </c>
@@ -600,37 +608,44 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>45833</v>
+        <v>45845</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1">
-        <v>3850</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>45880</v>
+        <v>45847</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="1">
-        <v>4150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3">
+        <f>100+150+360</f>
+        <v>610</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>45847</v>
+        <v>45875</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -641,64 +656,60 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="1">
-        <f>100+150+360</f>
-        <v>610</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>45845</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>45875</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="E11" s="3">
         <f>100+180+360</f>
         <v>640</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>45880</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>45881</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>45895</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>45895</v>
       </c>
@@ -706,51 +717,75 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3">
+        <v>7236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>45844</v>
+        <v>45895</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>45895</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
         <v>10</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E17" s="3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>45901</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="1">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>45818</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="1">
-        <f>2800*3.6</f>
-        <v>10080</v>
+      <c r="E18" s="3">
+        <v>2200</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:F17" xr:uid="{A071E94A-6A2E-4BE7-83EF-DC3EE1978A30}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F17">
+      <sortCondition ref="A3:A17"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F17">
+    <sortCondition ref="A4:A17"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
